--- a/data/pca/factorExposure/factorExposure_2015-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02328421623199722</v>
+        <v>0.0125002574387565</v>
       </c>
       <c r="C2">
-        <v>0.02794740466866997</v>
+        <v>0.05465278739319136</v>
       </c>
       <c r="D2">
-        <v>0.1523721969363512</v>
+        <v>-0.1188561313666866</v>
       </c>
       <c r="E2">
-        <v>0.06057854443308706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.05361760159433963</v>
+      </c>
+      <c r="F2">
+        <v>0.03488957742962989</v>
+      </c>
+      <c r="G2">
+        <v>0.1491995676670624</v>
+      </c>
+      <c r="H2">
+        <v>0.05333266222526004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04835813134436818</v>
+        <v>0.02368453844513541</v>
       </c>
       <c r="C4">
-        <v>0.07655771537036238</v>
+        <v>0.1133455369062333</v>
       </c>
       <c r="D4">
-        <v>0.1075923895937246</v>
+        <v>-0.1118652272227106</v>
       </c>
       <c r="E4">
-        <v>0.1149769441697636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.05320000606381339</v>
+      </c>
+      <c r="F4">
+        <v>0.09277580017227099</v>
+      </c>
+      <c r="G4">
+        <v>0.02238178899804995</v>
+      </c>
+      <c r="H4">
+        <v>-0.07470828358518072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03047431754012834</v>
+        <v>0.03435982734721141</v>
       </c>
       <c r="C6">
-        <v>0.01724976008397009</v>
+        <v>0.03799242165700548</v>
       </c>
       <c r="D6">
-        <v>0.1118921540249573</v>
+        <v>-0.09626825864650355</v>
       </c>
       <c r="E6">
-        <v>0.07227830460109461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08714179222805264</v>
+      </c>
+      <c r="F6">
+        <v>0.04186842474943956</v>
+      </c>
+      <c r="G6">
+        <v>-0.001315410087473773</v>
+      </c>
+      <c r="H6">
+        <v>0.009754280849798918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0006037240306740525</v>
+        <v>0.007536221708034295</v>
       </c>
       <c r="C7">
-        <v>0.025814059713452</v>
+        <v>0.04200873702041886</v>
       </c>
       <c r="D7">
-        <v>0.1056697575722387</v>
+        <v>-0.09229837715000191</v>
       </c>
       <c r="E7">
-        <v>0.0408983367043502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07892777556050999</v>
+      </c>
+      <c r="F7">
+        <v>0.01253110047909583</v>
+      </c>
+      <c r="G7">
+        <v>-0.009566289621096511</v>
+      </c>
+      <c r="H7">
+        <v>-0.02326869001159728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001252365030779059</v>
+        <v>-0.004878422755538529</v>
       </c>
       <c r="C8">
-        <v>0.02638628634255626</v>
+        <v>0.03779182178138855</v>
       </c>
       <c r="D8">
-        <v>0.07723475195845662</v>
+        <v>-0.06101691602677818</v>
       </c>
       <c r="E8">
-        <v>0.05789311469990912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04850389570697967</v>
+      </c>
+      <c r="F8">
+        <v>0.05136672969104839</v>
+      </c>
+      <c r="G8">
+        <v>0.07515425715915247</v>
+      </c>
+      <c r="H8">
+        <v>-0.04661253368542616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.037982999131921</v>
+        <v>0.01710869488742573</v>
       </c>
       <c r="C9">
-        <v>0.06655763682531818</v>
+        <v>0.09309344397347173</v>
       </c>
       <c r="D9">
-        <v>0.1116999034703532</v>
+        <v>-0.0988043245196828</v>
       </c>
       <c r="E9">
-        <v>0.09358913929558296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0451019371860679</v>
+      </c>
+      <c r="F9">
+        <v>0.06057298475556325</v>
+      </c>
+      <c r="G9">
+        <v>0.005481791491265097</v>
+      </c>
+      <c r="H9">
+        <v>-0.0262292949455862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1943514639737423</v>
+        <v>0.2442167181895889</v>
       </c>
       <c r="C10">
-        <v>-0.1595493218736987</v>
+        <v>-0.09453243128880759</v>
       </c>
       <c r="D10">
-        <v>-0.04158763441298011</v>
+        <v>0.01495520765060355</v>
       </c>
       <c r="E10">
-        <v>0.03394153093081501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0246185401460928</v>
+      </c>
+      <c r="F10">
+        <v>0.04131037567507944</v>
+      </c>
+      <c r="G10">
+        <v>-0.004617382478654565</v>
+      </c>
+      <c r="H10">
+        <v>-0.0001986978116114535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01483528637590186</v>
+        <v>0.01078142699474482</v>
       </c>
       <c r="C11">
-        <v>0.04334109222904237</v>
+        <v>0.06148034761344807</v>
       </c>
       <c r="D11">
-        <v>0.04570877670763795</v>
+        <v>-0.038073351905337</v>
       </c>
       <c r="E11">
-        <v>-0.007332996588992049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03678366788682588</v>
+      </c>
+      <c r="F11">
+        <v>-0.01254881736331887</v>
+      </c>
+      <c r="G11">
+        <v>-0.00451616132597341</v>
+      </c>
+      <c r="H11">
+        <v>-0.01889849489235338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01387275212043695</v>
+        <v>0.01077952620976338</v>
       </c>
       <c r="C12">
-        <v>0.04323819952091057</v>
+        <v>0.05241491717294888</v>
       </c>
       <c r="D12">
-        <v>0.06196950063188186</v>
+        <v>-0.04580845013291323</v>
       </c>
       <c r="E12">
-        <v>0.01004621853441019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03203602747398546</v>
+      </c>
+      <c r="F12">
+        <v>-0.01426209667480427</v>
+      </c>
+      <c r="G12">
+        <v>-0.01564608124110303</v>
+      </c>
+      <c r="H12">
+        <v>0.01836314109627748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009867254438486217</v>
+        <v>0.005259211453513402</v>
       </c>
       <c r="C13">
-        <v>0.02739039144828169</v>
+        <v>0.06036411002848365</v>
       </c>
       <c r="D13">
-        <v>0.1347626286774851</v>
+        <v>-0.1543165857974556</v>
       </c>
       <c r="E13">
-        <v>0.0790625499662187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.07744707208222251</v>
+      </c>
+      <c r="F13">
+        <v>0.03956944456203294</v>
+      </c>
+      <c r="G13">
+        <v>0.06188073080531033</v>
+      </c>
+      <c r="H13">
+        <v>0.06587783514325078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007603582266383407</v>
+        <v>0.003942533148679222</v>
       </c>
       <c r="C14">
-        <v>0.01719741983125816</v>
+        <v>0.03498502862379575</v>
       </c>
       <c r="D14">
-        <v>0.08008527001035085</v>
+        <v>-0.09096589371572697</v>
       </c>
       <c r="E14">
-        <v>0.03779941737225793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0854765812596761</v>
+      </c>
+      <c r="F14">
+        <v>0.03124711546270323</v>
+      </c>
+      <c r="G14">
+        <v>0.02123466249371695</v>
+      </c>
+      <c r="H14">
+        <v>0.03095844533525948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003252244408988174</v>
+        <v>-0.00322246991490875</v>
       </c>
       <c r="C15">
-        <v>0.01301889545199383</v>
+        <v>0.03108826908940233</v>
       </c>
       <c r="D15">
-        <v>0.04701441611528914</v>
+        <v>-0.05943469092096455</v>
       </c>
       <c r="E15">
-        <v>0.01253417411442966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03734636441162962</v>
+      </c>
+      <c r="F15">
+        <v>0.008190245811085333</v>
+      </c>
+      <c r="G15">
+        <v>0.02629014961707356</v>
+      </c>
+      <c r="H15">
+        <v>-0.01529026256598368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01440494192685205</v>
+        <v>0.01031091492394537</v>
       </c>
       <c r="C16">
-        <v>0.03997423333875641</v>
+        <v>0.05358104636000099</v>
       </c>
       <c r="D16">
-        <v>0.05145784048075434</v>
+        <v>-0.0412462979087391</v>
       </c>
       <c r="E16">
-        <v>0.005219562622982543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03852443073621251</v>
+      </c>
+      <c r="F16">
+        <v>-0.006989387437244513</v>
+      </c>
+      <c r="G16">
+        <v>-0.01427653601819685</v>
+      </c>
+      <c r="H16">
+        <v>-0.005655731929582129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003126619332037359</v>
+        <v>-0.0007190991989153782</v>
       </c>
       <c r="C19">
-        <v>0.02212631409276629</v>
+        <v>0.01830012642830075</v>
       </c>
       <c r="D19">
-        <v>0.07271697134103865</v>
+        <v>-0.03962216393511684</v>
       </c>
       <c r="E19">
-        <v>0.03562819699239156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.001557999241214898</v>
+      </c>
+      <c r="F19">
+        <v>0.004666858705608122</v>
+      </c>
+      <c r="G19">
+        <v>0.02012259310592906</v>
+      </c>
+      <c r="H19">
+        <v>0.01740309089588253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003657032305424065</v>
+        <v>0.006110264574157421</v>
       </c>
       <c r="C20">
-        <v>0.02611001914241751</v>
+        <v>0.04478590565424536</v>
       </c>
       <c r="D20">
-        <v>0.07098916512822853</v>
+        <v>-0.07804175530110183</v>
       </c>
       <c r="E20">
-        <v>0.05407072327014244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04785165428219635</v>
+      </c>
+      <c r="F20">
+        <v>0.02653431250150464</v>
+      </c>
+      <c r="G20">
+        <v>-0.01237801379815606</v>
+      </c>
+      <c r="H20">
+        <v>-0.02926198041718059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006191658437724227</v>
+        <v>0.004203358451090261</v>
       </c>
       <c r="C21">
-        <v>0.02860595012410205</v>
+        <v>0.04680081235490668</v>
       </c>
       <c r="D21">
-        <v>0.1221001286792103</v>
+        <v>-0.1170461749150966</v>
       </c>
       <c r="E21">
-        <v>0.1213980089815957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06340441280405658</v>
+      </c>
+      <c r="F21">
+        <v>0.09656111701335948</v>
+      </c>
+      <c r="G21">
+        <v>0.07706568303335076</v>
+      </c>
+      <c r="H21">
+        <v>0.0820930637972232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00437745476363872</v>
+        <v>-0.006211521183398915</v>
       </c>
       <c r="C22">
-        <v>0.05328531712105258</v>
+        <v>0.08399694252023546</v>
       </c>
       <c r="D22">
-        <v>0.2168569450535474</v>
+        <v>-0.2159758547081782</v>
       </c>
       <c r="E22">
-        <v>0.08952320266152509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04901882472252033</v>
+      </c>
+      <c r="F22">
+        <v>0.03621123514683394</v>
+      </c>
+      <c r="G22">
+        <v>0.2444938716923828</v>
+      </c>
+      <c r="H22">
+        <v>-0.1372029710642398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004903898506928002</v>
+        <v>-0.003112704732669306</v>
       </c>
       <c r="C23">
-        <v>0.05350861652508036</v>
+        <v>0.08572309574614785</v>
       </c>
       <c r="D23">
-        <v>0.2156030257162606</v>
+        <v>-0.219415807351798</v>
       </c>
       <c r="E23">
-        <v>0.08962145596374602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04574405927329315</v>
+      </c>
+      <c r="F23">
+        <v>0.03938397027727849</v>
+      </c>
+      <c r="G23">
+        <v>0.2383243630321457</v>
+      </c>
+      <c r="H23">
+        <v>-0.1307951492414798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02003903499538314</v>
+        <v>0.0116792258314701</v>
       </c>
       <c r="C24">
-        <v>0.06169404739757399</v>
+        <v>0.07138145275593619</v>
       </c>
       <c r="D24">
-        <v>0.06635845262320399</v>
+        <v>-0.04323660966216436</v>
       </c>
       <c r="E24">
-        <v>0.009624058041382937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04646810964471438</v>
+      </c>
+      <c r="F24">
+        <v>-0.006562314654818859</v>
+      </c>
+      <c r="G24">
+        <v>0.002964927803829314</v>
+      </c>
+      <c r="H24">
+        <v>-0.01000351509300829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02089565016355961</v>
+        <v>0.01625123016062002</v>
       </c>
       <c r="C25">
-        <v>0.05384861043091948</v>
+        <v>0.06620847961988792</v>
       </c>
       <c r="D25">
-        <v>0.05807249568866279</v>
+        <v>-0.04626940408976486</v>
       </c>
       <c r="E25">
-        <v>0.01386629253336783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03081277394457732</v>
+      </c>
+      <c r="F25">
+        <v>-0.005355091557027267</v>
+      </c>
+      <c r="G25">
+        <v>-0.01115645517126182</v>
+      </c>
+      <c r="H25">
+        <v>-0.005674781387382498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007933160402574219</v>
+        <v>0.01720790379996823</v>
       </c>
       <c r="C26">
-        <v>0.01740009129706893</v>
+        <v>0.03155853555595697</v>
       </c>
       <c r="D26">
-        <v>0.06419839275938247</v>
+        <v>-0.05484548003705463</v>
       </c>
       <c r="E26">
-        <v>0.04085633820624235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06052290443475306</v>
+      </c>
+      <c r="F26">
+        <v>0.04645579912076802</v>
+      </c>
+      <c r="G26">
+        <v>0.03104971812862336</v>
+      </c>
+      <c r="H26">
+        <v>0.0003568339389043345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2754505940527747</v>
+        <v>0.3128810163978299</v>
       </c>
       <c r="C28">
-        <v>-0.1760091883991179</v>
+        <v>-0.09464022676683777</v>
       </c>
       <c r="D28">
-        <v>-0.01197927104025974</v>
+        <v>0.01806107144487692</v>
       </c>
       <c r="E28">
-        <v>0.03433628573272749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05333356599909457</v>
+      </c>
+      <c r="F28">
+        <v>0.04701736773701411</v>
+      </c>
+      <c r="G28">
+        <v>0.06542646346891282</v>
+      </c>
+      <c r="H28">
+        <v>-0.02238739316319528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003142759527447823</v>
+        <v>0.002433897733390209</v>
       </c>
       <c r="C29">
-        <v>0.02102395241759322</v>
+        <v>0.04149178499585658</v>
       </c>
       <c r="D29">
-        <v>0.07509315885285234</v>
+        <v>-0.09599825468504768</v>
       </c>
       <c r="E29">
-        <v>0.04523087657662429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09807612051449434</v>
+      </c>
+      <c r="F29">
+        <v>0.03664698196177051</v>
+      </c>
+      <c r="G29">
+        <v>0.01532515353839952</v>
+      </c>
+      <c r="H29">
+        <v>0.03880010706217219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02935962925894916</v>
+        <v>0.01895922812472221</v>
       </c>
       <c r="C30">
-        <v>0.07136318920295993</v>
+        <v>0.09907348544777667</v>
       </c>
       <c r="D30">
-        <v>0.1509505618600917</v>
+        <v>-0.1159267513394481</v>
       </c>
       <c r="E30">
-        <v>0.06162271863420643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08590824997865154</v>
+      </c>
+      <c r="F30">
+        <v>0.0156205079074801</v>
+      </c>
+      <c r="G30">
+        <v>0.02077572009451132</v>
+      </c>
+      <c r="H30">
+        <v>-0.04566561147043489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03484947640693147</v>
+        <v>0.01155645810116662</v>
       </c>
       <c r="C31">
-        <v>0.08486176456037343</v>
+        <v>0.09513381741589667</v>
       </c>
       <c r="D31">
-        <v>0.05704774073775386</v>
+        <v>-0.03254299549750009</v>
       </c>
       <c r="E31">
-        <v>0.02603100436130362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02523471241428332</v>
+      </c>
+      <c r="F31">
+        <v>0.01734102893060021</v>
+      </c>
+      <c r="G31">
+        <v>0.016920349172288</v>
+      </c>
+      <c r="H31">
+        <v>-0.008641336617876416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01537356602918094</v>
+        <v>0.01373776384897495</v>
       </c>
       <c r="C32">
-        <v>0.04195273055719122</v>
+        <v>0.05060714105158628</v>
       </c>
       <c r="D32">
-        <v>0.08795009233824289</v>
+        <v>-0.07722001344266398</v>
       </c>
       <c r="E32">
-        <v>0.0720384935492515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01227639744514795</v>
+      </c>
+      <c r="F32">
+        <v>0.04958365257827307</v>
+      </c>
+      <c r="G32">
+        <v>0.03364894557156574</v>
+      </c>
+      <c r="H32">
+        <v>0.02028405235901143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007025982830178333</v>
+        <v>0.008688408043925112</v>
       </c>
       <c r="C33">
-        <v>0.04152229809884186</v>
+        <v>0.06431307114666726</v>
       </c>
       <c r="D33">
-        <v>0.1078557517991059</v>
+        <v>-0.1070225093062541</v>
       </c>
       <c r="E33">
-        <v>0.0630057455441294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05838658441457278</v>
+      </c>
+      <c r="F33">
+        <v>0.0289615663886732</v>
+      </c>
+      <c r="G33">
+        <v>0.01220951026946951</v>
+      </c>
+      <c r="H33">
+        <v>-0.002891987312588511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01705458864147521</v>
+        <v>0.01007550337993903</v>
       </c>
       <c r="C34">
-        <v>0.06253626911298724</v>
+        <v>0.06429010771845622</v>
       </c>
       <c r="D34">
-        <v>0.05978836595096105</v>
+        <v>-0.02436572427517586</v>
       </c>
       <c r="E34">
-        <v>-0.0340669204353992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0365019585764597</v>
+      </c>
+      <c r="F34">
+        <v>-0.03944673740496941</v>
+      </c>
+      <c r="G34">
+        <v>0.003561132090346703</v>
+      </c>
+      <c r="H34">
+        <v>0.00322187547022009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-6.27071060724288e-05</v>
+        <v>0.003980489927346312</v>
       </c>
       <c r="C35">
-        <v>3.869683998068317e-05</v>
+        <v>0.0151957184908926</v>
       </c>
       <c r="D35">
-        <v>-0.0006412927008395823</v>
+        <v>-0.03436616304477638</v>
       </c>
       <c r="E35">
-        <v>-0.0004602494260633957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.02018039246217613</v>
+      </c>
+      <c r="F35">
+        <v>0.01778236595333606</v>
+      </c>
+      <c r="G35">
+        <v>-0.001704676154948402</v>
+      </c>
+      <c r="H35">
+        <v>0.005673277342885944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009826723003460564</v>
+        <v>0.01210990723993617</v>
       </c>
       <c r="C36">
-        <v>0.007792240407482563</v>
+        <v>0.0244751725894844</v>
       </c>
       <c r="D36">
-        <v>0.06299009573052977</v>
+        <v>-0.06312738659078881</v>
       </c>
       <c r="E36">
-        <v>0.05965123617456179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04933505335129318</v>
+      </c>
+      <c r="F36">
+        <v>0.04844407975927479</v>
+      </c>
+      <c r="G36">
+        <v>0.01819830048442469</v>
+      </c>
+      <c r="H36">
+        <v>-0.002172706729295606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005908844107755071</v>
+        <v>0.0114197331109399</v>
       </c>
       <c r="C38">
-        <v>0.008403771417739035</v>
+        <v>0.02845370320563858</v>
       </c>
       <c r="D38">
-        <v>0.08909286054261141</v>
+        <v>-0.08809985904254086</v>
       </c>
       <c r="E38">
-        <v>0.03378714422681855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03369322763676332</v>
+      </c>
+      <c r="F38">
+        <v>0.008038057802320536</v>
+      </c>
+      <c r="G38">
+        <v>0.03530858982213393</v>
+      </c>
+      <c r="H38">
+        <v>-0.03961119383884375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01387119833855603</v>
+        <v>0.007027641454829709</v>
       </c>
       <c r="C39">
-        <v>0.06293209401549207</v>
+        <v>0.08875917586021422</v>
       </c>
       <c r="D39">
-        <v>0.1116722509009591</v>
+        <v>-0.0861468641058591</v>
       </c>
       <c r="E39">
-        <v>0.02498699357298786</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08238329527437936</v>
+      </c>
+      <c r="F39">
+        <v>-0.006169012450131404</v>
+      </c>
+      <c r="G39">
+        <v>0.001782009889663733</v>
+      </c>
+      <c r="H39">
+        <v>-0.00733225797672343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01812973994326577</v>
+        <v>0.0141502913267952</v>
       </c>
       <c r="C40">
-        <v>0.02584447932879972</v>
+        <v>0.04406228345758511</v>
       </c>
       <c r="D40">
-        <v>0.1226574051411375</v>
+        <v>-0.08672321803462424</v>
       </c>
       <c r="E40">
-        <v>0.01742050400798541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0728891404705366</v>
+      </c>
+      <c r="F40">
+        <v>-0.02937891335716478</v>
+      </c>
+      <c r="G40">
+        <v>0.08593464395154661</v>
+      </c>
+      <c r="H40">
+        <v>0.02107756471858776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01112700795954898</v>
+        <v>0.01880803403097756</v>
       </c>
       <c r="C41">
-        <v>0.005565209805601444</v>
+        <v>0.02400070320798886</v>
       </c>
       <c r="D41">
-        <v>0.03228391910138158</v>
+        <v>-0.04230448624331209</v>
       </c>
       <c r="E41">
-        <v>0.02929021107090635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01317176520253926</v>
+      </c>
+      <c r="F41">
+        <v>0.0204549883007701</v>
+      </c>
+      <c r="G41">
+        <v>0.009677585365696599</v>
+      </c>
+      <c r="H41">
+        <v>-0.005338166542171287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001189771490174811</v>
+        <v>0.0099979392376442</v>
       </c>
       <c r="C43">
-        <v>0.001658644213035727</v>
+        <v>0.01691874125714837</v>
       </c>
       <c r="D43">
-        <v>0.04693072238069081</v>
+        <v>-0.05128899415401392</v>
       </c>
       <c r="E43">
-        <v>0.03209475211994784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02651777497698571</v>
+      </c>
+      <c r="F43">
+        <v>0.02297391693349451</v>
+      </c>
+      <c r="G43">
+        <v>0.005395385772170835</v>
+      </c>
+      <c r="H43">
+        <v>-0.01851272870600327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0203957426565984</v>
+        <v>0.01124813380247747</v>
       </c>
       <c r="C44">
-        <v>0.02685550848151764</v>
+        <v>0.05192844144832291</v>
       </c>
       <c r="D44">
-        <v>0.09559039216377858</v>
+        <v>-0.097494662441661</v>
       </c>
       <c r="E44">
-        <v>0.07743310775900136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06940815282057884</v>
+      </c>
+      <c r="F44">
+        <v>0.03624477992606195</v>
+      </c>
+      <c r="G44">
+        <v>0.04145412070906225</v>
+      </c>
+      <c r="H44">
+        <v>-0.0275492265303415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00242841054266237</v>
+        <v>-0.001383968984550523</v>
       </c>
       <c r="C46">
-        <v>0.03073332340742316</v>
+        <v>0.04343031852622808</v>
       </c>
       <c r="D46">
-        <v>0.08232374291650631</v>
+        <v>-0.06940478758199847</v>
       </c>
       <c r="E46">
-        <v>0.04236847074893727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07408748555410041</v>
+      </c>
+      <c r="F46">
+        <v>0.0335080507661917</v>
+      </c>
+      <c r="G46">
+        <v>0.02491968419112022</v>
+      </c>
+      <c r="H46">
+        <v>-0.001510484825026803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06994153490037656</v>
+        <v>0.0322055999644888</v>
       </c>
       <c r="C47">
-        <v>0.1138998391612331</v>
+        <v>0.1252324290930514</v>
       </c>
       <c r="D47">
-        <v>0.05928017171990775</v>
+        <v>-0.02284990290388171</v>
       </c>
       <c r="E47">
-        <v>0.0259873341273528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.002575238950805546</v>
+      </c>
+      <c r="F47">
+        <v>-0.004449393932698081</v>
+      </c>
+      <c r="G47">
+        <v>-0.02005279815661317</v>
+      </c>
+      <c r="H47">
+        <v>-0.01062461582893906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009844271265959144</v>
+        <v>0.0146932259999761</v>
       </c>
       <c r="C48">
-        <v>0.01787020068286628</v>
+        <v>0.03518636546068846</v>
       </c>
       <c r="D48">
-        <v>0.06735610408785467</v>
+        <v>-0.0691157460840798</v>
       </c>
       <c r="E48">
-        <v>0.06311235492489427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04431805409018422</v>
+      </c>
+      <c r="F48">
+        <v>0.05533946812978701</v>
+      </c>
+      <c r="G48">
+        <v>0.02543300380801101</v>
+      </c>
+      <c r="H48">
+        <v>-0.01247308100154205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.001934088753268502</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0008127130840430803</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001174554023961956</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.001602720015597816</v>
+      </c>
+      <c r="F49">
+        <v>0.001372009608930699</v>
+      </c>
+      <c r="G49">
+        <v>-0.001739681983655835</v>
+      </c>
+      <c r="H49">
+        <v>0.001042177930394107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03156290505078035</v>
+        <v>0.01512671067192399</v>
       </c>
       <c r="C50">
-        <v>0.05798083491529447</v>
+        <v>0.07580419416668654</v>
       </c>
       <c r="D50">
-        <v>0.06170851341949244</v>
+        <v>-0.04567303203584079</v>
       </c>
       <c r="E50">
-        <v>0.01871949220328678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02760936924253168</v>
+      </c>
+      <c r="F50">
+        <v>0.009274175035965145</v>
+      </c>
+      <c r="G50">
+        <v>0.01572865553796803</v>
+      </c>
+      <c r="H50">
+        <v>-0.0207083244185085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004518224232768956</v>
+        <v>-0.003906171800606743</v>
       </c>
       <c r="C51">
-        <v>0.006660432652872416</v>
+        <v>0.01939325098805652</v>
       </c>
       <c r="D51">
-        <v>0.06476273943523278</v>
+        <v>-0.04766245179448224</v>
       </c>
       <c r="E51">
-        <v>0.03410532589258004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05300995747394542</v>
+      </c>
+      <c r="F51">
+        <v>0.03573399178928714</v>
+      </c>
+      <c r="G51">
+        <v>0.04917635007075397</v>
+      </c>
+      <c r="H51">
+        <v>0.0009104161668090507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1047641122779175</v>
+        <v>0.06048675606344799</v>
       </c>
       <c r="C53">
-        <v>0.1347066864268245</v>
+        <v>0.1624212368564483</v>
       </c>
       <c r="D53">
-        <v>-0.005311575929800509</v>
+        <v>0.02258924775200511</v>
       </c>
       <c r="E53">
-        <v>0.03611117548543612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03043847833724967</v>
+      </c>
+      <c r="F53">
+        <v>0.04078743439032803</v>
+      </c>
+      <c r="G53">
+        <v>0.007622181667955892</v>
+      </c>
+      <c r="H53">
+        <v>-0.01130408920883175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.008583186263531519</v>
+        <v>0.01212583190878459</v>
       </c>
       <c r="C54">
-        <v>0.02362254852046106</v>
+        <v>0.04220402546033943</v>
       </c>
       <c r="D54">
-        <v>0.09327790258728329</v>
+        <v>-0.07632549849532828</v>
       </c>
       <c r="E54">
-        <v>0.02831003352682312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04254233473002933</v>
+      </c>
+      <c r="F54">
+        <v>0.005415505656795779</v>
+      </c>
+      <c r="G54">
+        <v>0.02533677920238841</v>
+      </c>
+      <c r="H54">
+        <v>-0.02613680519152983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08648430964137788</v>
+        <v>0.042645057219194</v>
       </c>
       <c r="C55">
-        <v>0.1127227344718291</v>
+        <v>0.1274959244946971</v>
       </c>
       <c r="D55">
-        <v>0.0009759234993206833</v>
+        <v>0.04404809772828102</v>
       </c>
       <c r="E55">
-        <v>-0.0044932012734785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.006503355165984158</v>
+      </c>
+      <c r="F55">
+        <v>0.004101267614719171</v>
+      </c>
+      <c r="G55">
+        <v>0.01578872405387265</v>
+      </c>
+      <c r="H55">
+        <v>0.003488720792075145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1279439404932843</v>
+        <v>0.06196835781386482</v>
       </c>
       <c r="C56">
-        <v>0.1562304317245061</v>
+        <v>0.1908016452998396</v>
       </c>
       <c r="D56">
-        <v>0.02118217858610021</v>
+        <v>0.03956575899820662</v>
       </c>
       <c r="E56">
-        <v>-0.007902613862740949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03285521811680633</v>
+      </c>
+      <c r="F56">
+        <v>0.005251261566327129</v>
+      </c>
+      <c r="G56">
+        <v>0.06811691348575094</v>
+      </c>
+      <c r="H56">
+        <v>-0.0116109700471919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.001625815163877798</v>
+        <v>0.008730672154136882</v>
       </c>
       <c r="C58">
-        <v>0.01695728077664789</v>
+        <v>0.0674477507275575</v>
       </c>
       <c r="D58">
-        <v>0.2228802800753615</v>
+        <v>-0.2659310428887103</v>
       </c>
       <c r="E58">
-        <v>0.1734618492263788</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07389884281453872</v>
+      </c>
+      <c r="F58">
+        <v>0.1386160709565144</v>
+      </c>
+      <c r="G58">
+        <v>0.1490364961562454</v>
+      </c>
+      <c r="H58">
+        <v>-0.1070961154318563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1994878587407224</v>
+        <v>0.2582801045240716</v>
       </c>
       <c r="C59">
-        <v>-0.1274710904918553</v>
+        <v>-0.05858761388888569</v>
       </c>
       <c r="D59">
-        <v>0.04811446322204788</v>
+        <v>-0.04248747033690618</v>
       </c>
       <c r="E59">
-        <v>0.0381043537632975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01638876038046733</v>
+      </c>
+      <c r="F59">
+        <v>0.01777710592958452</v>
+      </c>
+      <c r="G59">
+        <v>0.02713435460831506</v>
+      </c>
+      <c r="H59">
+        <v>0.03053900334415328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1780877548861305</v>
+        <v>0.1538490690149771</v>
       </c>
       <c r="C60">
-        <v>0.1045223964516439</v>
+        <v>0.1632342680203001</v>
       </c>
       <c r="D60">
-        <v>0.120166687053781</v>
+        <v>-0.03888611569274861</v>
       </c>
       <c r="E60">
-        <v>-0.06904210490920074</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1099760741489236</v>
+      </c>
+      <c r="F60">
+        <v>-0.1923002284450979</v>
+      </c>
+      <c r="G60">
+        <v>-0.2539814403647694</v>
+      </c>
+      <c r="H60">
+        <v>0.1428256171159068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02461243589399348</v>
+        <v>0.01493125897519896</v>
       </c>
       <c r="C61">
-        <v>0.05890699715993495</v>
+        <v>0.0825675147408764</v>
       </c>
       <c r="D61">
-        <v>0.0846861293993985</v>
+        <v>-0.06301007245766638</v>
       </c>
       <c r="E61">
-        <v>0.009749517815193483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0582885022176109</v>
+      </c>
+      <c r="F61">
+        <v>-0.01364169887349345</v>
+      </c>
+      <c r="G61">
+        <v>-0.001400110209717342</v>
+      </c>
+      <c r="H61">
+        <v>0.002193717453906325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01132186358537547</v>
+        <v>0.01590757883870941</v>
       </c>
       <c r="C63">
-        <v>0.0262440626412702</v>
+        <v>0.04536191677470561</v>
       </c>
       <c r="D63">
-        <v>0.07816602084910629</v>
+        <v>-0.05170673689776888</v>
       </c>
       <c r="E63">
-        <v>0.03466270151051576</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07787664277622294</v>
+      </c>
+      <c r="F63">
+        <v>0.02203601680947403</v>
+      </c>
+      <c r="G63">
+        <v>0.009447844500757521</v>
+      </c>
+      <c r="H63">
+        <v>-0.009344823149797522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04884069783804157</v>
+        <v>0.01702113862100721</v>
       </c>
       <c r="C64">
-        <v>0.09233154261867178</v>
+        <v>0.1052445072014956</v>
       </c>
       <c r="D64">
-        <v>0.02698696025338336</v>
+        <v>-0.01406663185535385</v>
       </c>
       <c r="E64">
-        <v>0.02651470922707411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0370365372903705</v>
+      </c>
+      <c r="F64">
+        <v>0.01762091737750623</v>
+      </c>
+      <c r="G64">
+        <v>-0.02817751195979374</v>
+      </c>
+      <c r="H64">
+        <v>-0.02374511693786791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02695538562643644</v>
+        <v>0.02657812752350039</v>
       </c>
       <c r="C65">
-        <v>0.01812426264206116</v>
+        <v>0.04498466260946238</v>
       </c>
       <c r="D65">
-        <v>0.09687022623688589</v>
+        <v>-0.09653013441211736</v>
       </c>
       <c r="E65">
-        <v>0.03518228075917772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06618743527021663</v>
+      </c>
+      <c r="F65">
+        <v>-0.008400774850851925</v>
+      </c>
+      <c r="G65">
+        <v>-0.04854023835829358</v>
+      </c>
+      <c r="H65">
+        <v>-0.02455143659190588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02071005001603789</v>
+        <v>0.008102320210446545</v>
       </c>
       <c r="C66">
-        <v>0.0746477728163374</v>
+        <v>0.1095107942699249</v>
       </c>
       <c r="D66">
-        <v>0.1314510233672465</v>
+        <v>-0.1099041513544779</v>
       </c>
       <c r="E66">
-        <v>0.02561153021132166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07719618086391049</v>
+      </c>
+      <c r="F66">
+        <v>-0.00714450873709073</v>
+      </c>
+      <c r="G66">
+        <v>0.02143570714145552</v>
+      </c>
+      <c r="H66">
+        <v>-0.01510166804658982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01949578468343235</v>
+        <v>0.02057505042750153</v>
       </c>
       <c r="C67">
-        <v>0.02047416994900959</v>
+        <v>0.0362985015600109</v>
       </c>
       <c r="D67">
-        <v>0.05555210310572584</v>
+        <v>-0.04903321304916203</v>
       </c>
       <c r="E67">
-        <v>-0.0008420430398471512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03044868527913283</v>
+      </c>
+      <c r="F67">
+        <v>-0.02099996893505928</v>
+      </c>
+      <c r="G67">
+        <v>0.01163788194693889</v>
+      </c>
+      <c r="H67">
+        <v>-0.02465227922037673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2126937097320497</v>
+        <v>0.2787866587861258</v>
       </c>
       <c r="C68">
-        <v>-0.13952486668138</v>
+        <v>-0.07109465171488587</v>
       </c>
       <c r="D68">
-        <v>0.02078860677593541</v>
+        <v>-0.02839708576755953</v>
       </c>
       <c r="E68">
-        <v>0.02548979725208887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003018657841095218</v>
+      </c>
+      <c r="F68">
+        <v>0.02607926524902908</v>
+      </c>
+      <c r="G68">
+        <v>0.05421565956761244</v>
+      </c>
+      <c r="H68">
+        <v>-0.005261551634527418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0508920557033611</v>
+        <v>0.0159658887433685</v>
       </c>
       <c r="C69">
-        <v>0.1187195381655701</v>
+        <v>0.1133865320547422</v>
       </c>
       <c r="D69">
-        <v>0.08043093598783228</v>
+        <v>-0.02082493606499795</v>
       </c>
       <c r="E69">
-        <v>0.02509562664532959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01435689697645431</v>
+      </c>
+      <c r="F69">
+        <v>-0.01455659306790505</v>
+      </c>
+      <c r="G69">
+        <v>-0.01235498306886004</v>
+      </c>
+      <c r="H69">
+        <v>0.00459287030254944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2304459972564284</v>
+        <v>0.271621313274986</v>
       </c>
       <c r="C71">
-        <v>-0.1620050402026858</v>
+        <v>-0.08700812631116912</v>
       </c>
       <c r="D71">
-        <v>0.01335963168005747</v>
+        <v>-0.006650481313538483</v>
       </c>
       <c r="E71">
-        <v>0.005250847952423351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.006985103874891377</v>
+      </c>
+      <c r="F71">
+        <v>0.01301927124224981</v>
+      </c>
+      <c r="G71">
+        <v>0.04420837744513012</v>
+      </c>
+      <c r="H71">
+        <v>-0.02268405613736641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09852544990924052</v>
+        <v>0.06480598122886724</v>
       </c>
       <c r="C72">
-        <v>0.07699563809981483</v>
+        <v>0.1247146422076684</v>
       </c>
       <c r="D72">
-        <v>0.1143159247314047</v>
+        <v>-0.05426056079344355</v>
       </c>
       <c r="E72">
-        <v>0.02015363344663362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08349941706662296</v>
+      </c>
+      <c r="F72">
+        <v>-0.01874946586215036</v>
+      </c>
+      <c r="G72">
+        <v>-0.03548048106562375</v>
+      </c>
+      <c r="H72">
+        <v>0.003908578033326227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1692590416527071</v>
+        <v>0.157288008335305</v>
       </c>
       <c r="C73">
-        <v>0.08083962689364116</v>
+        <v>0.1618514154924557</v>
       </c>
       <c r="D73">
-        <v>0.190106009464261</v>
+        <v>-0.06065998472173256</v>
       </c>
       <c r="E73">
-        <v>-0.1175431851804135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2858280123741867</v>
+      </c>
+      <c r="F73">
+        <v>-0.2883619711642639</v>
+      </c>
+      <c r="G73">
+        <v>-0.4113742283105056</v>
+      </c>
+      <c r="H73">
+        <v>0.1379592202740652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09615411340750141</v>
+        <v>0.05167663696511294</v>
       </c>
       <c r="C74">
-        <v>0.1204780354723852</v>
+        <v>0.1406974452657555</v>
       </c>
       <c r="D74">
-        <v>-0.04900433178157523</v>
+        <v>0.05052973814077324</v>
       </c>
       <c r="E74">
-        <v>0.01566467225866375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02705072753886701</v>
+      </c>
+      <c r="F74">
+        <v>0.03220125350109183</v>
+      </c>
+      <c r="G74">
+        <v>-0.006809107280881257</v>
+      </c>
+      <c r="H74">
+        <v>-0.0001675553406430805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2128972612584538</v>
+        <v>0.1006113559711477</v>
       </c>
       <c r="C75">
-        <v>0.2145975047203898</v>
+        <v>0.2606599324304114</v>
       </c>
       <c r="D75">
-        <v>-0.0615728000727763</v>
+        <v>0.1236562875001567</v>
       </c>
       <c r="E75">
-        <v>-0.08702688576560334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1150686690854732</v>
+      </c>
+      <c r="F75">
+        <v>-0.05047630434450408</v>
+      </c>
+      <c r="G75">
+        <v>0.1067151293548675</v>
+      </c>
+      <c r="H75">
+        <v>-0.0825434033164595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1264695136769611</v>
+        <v>0.06029345214516979</v>
       </c>
       <c r="C76">
-        <v>0.1435755630427478</v>
+        <v>0.1753671646406991</v>
       </c>
       <c r="D76">
-        <v>-0.002004918127494299</v>
+        <v>0.05389181851667472</v>
       </c>
       <c r="E76">
-        <v>-0.01796886299026189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03763220058912391</v>
+      </c>
+      <c r="F76">
+        <v>-0.003391791682209267</v>
+      </c>
+      <c r="G76">
+        <v>0.04484333896461088</v>
+      </c>
+      <c r="H76">
+        <v>-0.02082304374629751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01652802748899878</v>
+        <v>0.003002981093882202</v>
       </c>
       <c r="C77">
-        <v>0.07868314742820795</v>
+        <v>0.1201310983006678</v>
       </c>
       <c r="D77">
-        <v>0.2021242329719808</v>
+        <v>-0.4831847743093907</v>
       </c>
       <c r="E77">
-        <v>0.1279429574955086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7767395603016307</v>
+      </c>
+      <c r="F77">
+        <v>-0.1737973557612768</v>
+      </c>
+      <c r="G77">
+        <v>-0.2167136298115632</v>
+      </c>
+      <c r="H77">
+        <v>0.01636145439174109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03355939692333614</v>
+        <v>0.02307934007258228</v>
       </c>
       <c r="C78">
-        <v>0.07266998172948713</v>
+        <v>0.09493460459052643</v>
       </c>
       <c r="D78">
-        <v>0.1506721735283948</v>
+        <v>-0.08615491436164981</v>
       </c>
       <c r="E78">
-        <v>0.08850076311495046</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07948645171459118</v>
+      </c>
+      <c r="F78">
+        <v>0.04385864723401882</v>
+      </c>
+      <c r="G78">
+        <v>0.08717831634625031</v>
+      </c>
+      <c r="H78">
+        <v>0.02491553591170474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1063825463774257</v>
+        <v>0.05141493616110961</v>
       </c>
       <c r="C79">
-        <v>0.209697266760604</v>
+        <v>0.2134127266061475</v>
       </c>
       <c r="D79">
-        <v>-0.4739551640883841</v>
+        <v>0.140319900052291</v>
       </c>
       <c r="E79">
-        <v>0.7657814693049426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.09582176837512563</v>
+      </c>
+      <c r="F79">
+        <v>0.7915054076264817</v>
+      </c>
+      <c r="G79">
+        <v>-0.4194734087072919</v>
+      </c>
+      <c r="H79">
+        <v>0.04023045868919328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002657266937528209</v>
+        <v>0.007548140335273869</v>
       </c>
       <c r="C80">
-        <v>0.04681061874905815</v>
+        <v>0.04621375809862371</v>
       </c>
       <c r="D80">
-        <v>0.04438435804593988</v>
+        <v>-0.02855731898544118</v>
       </c>
       <c r="E80">
-        <v>0.003003719379438041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06123482869141286</v>
+      </c>
+      <c r="F80">
+        <v>-0.001551615121907938</v>
+      </c>
+      <c r="G80">
+        <v>0.02750055733541834</v>
+      </c>
+      <c r="H80">
+        <v>0.0869691690390287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1042251475948499</v>
+        <v>0.03735819564942811</v>
       </c>
       <c r="C81">
-        <v>0.1387090698398555</v>
+        <v>0.1584029710515842</v>
       </c>
       <c r="D81">
-        <v>-0.07549846648689786</v>
+        <v>0.07232979972166467</v>
       </c>
       <c r="E81">
-        <v>0.002993743588954586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05892493005219877</v>
+      </c>
+      <c r="F81">
+        <v>0.05640717797631947</v>
+      </c>
+      <c r="G81">
+        <v>0.07703639721724181</v>
+      </c>
+      <c r="H81">
+        <v>-0.0008520349362257641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.213227953095328</v>
+        <v>0.08294918038709607</v>
       </c>
       <c r="C82">
-        <v>0.3102043984094587</v>
+        <v>0.2977094028122481</v>
       </c>
       <c r="D82">
-        <v>-0.1141650022779811</v>
+        <v>0.2232296915223198</v>
       </c>
       <c r="E82">
-        <v>-0.2324279252748312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1052908479615634</v>
+      </c>
+      <c r="F82">
+        <v>-0.1269780594420075</v>
+      </c>
+      <c r="G82">
+        <v>0.1429025898803049</v>
+      </c>
+      <c r="H82">
+        <v>-0.002903189363078429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01034673555682185</v>
+        <v>-0.007401426741512679</v>
       </c>
       <c r="C83">
-        <v>0.04987146995463984</v>
+        <v>0.01963222091040423</v>
       </c>
       <c r="D83">
-        <v>0.0163449430637793</v>
+        <v>-0.02972308421836437</v>
       </c>
       <c r="E83">
-        <v>0.04589112171951724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08969671615641246</v>
+      </c>
+      <c r="F83">
+        <v>0.08613635687154957</v>
+      </c>
+      <c r="G83">
+        <v>0.277837524038294</v>
+      </c>
+      <c r="H83">
+        <v>0.8906968276339439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0006537948534950991</v>
+        <v>-0.003910324447909413</v>
       </c>
       <c r="C84">
-        <v>0.002482465730704729</v>
+        <v>0.01735265349263474</v>
       </c>
       <c r="D84">
-        <v>0.007295923923963975</v>
+        <v>-0.04278148323231373</v>
       </c>
       <c r="E84">
-        <v>-0.002024009019591742</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01374515534272103</v>
+      </c>
+      <c r="F84">
+        <v>0.02753124091617544</v>
+      </c>
+      <c r="G84">
+        <v>0.05167382776486974</v>
+      </c>
+      <c r="H84">
+        <v>-0.06060024336023886</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1303692872456189</v>
+        <v>0.05703901337111568</v>
       </c>
       <c r="C85">
-        <v>0.1516682643777619</v>
+        <v>0.1762152454188396</v>
       </c>
       <c r="D85">
-        <v>-0.08089136904660725</v>
+        <v>0.1116182332858287</v>
       </c>
       <c r="E85">
-        <v>0.01151151077997678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01927083131223876</v>
+      </c>
+      <c r="F85">
+        <v>0.06240487332720067</v>
+      </c>
+      <c r="G85">
+        <v>0.02378407370319829</v>
+      </c>
+      <c r="H85">
+        <v>-0.02058033537292767</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02391429393598894</v>
+        <v>0.01722414443872499</v>
       </c>
       <c r="C86">
-        <v>0.008646461573357068</v>
+        <v>0.04083045831643783</v>
       </c>
       <c r="D86">
-        <v>0.1067761599621748</v>
+        <v>-0.1096801814105899</v>
       </c>
       <c r="E86">
-        <v>0.046013002407717</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.001684006400570552</v>
+      </c>
+      <c r="F86">
+        <v>0.02025508957139593</v>
+      </c>
+      <c r="G86">
+        <v>-0.01573547548748222</v>
+      </c>
+      <c r="H86">
+        <v>-0.02525038996469863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0243950280827136</v>
+        <v>0.01267345674726831</v>
       </c>
       <c r="C87">
-        <v>0.03405653699431424</v>
+        <v>0.06827928768635605</v>
       </c>
       <c r="D87">
-        <v>0.138541558506452</v>
+        <v>-0.1288797412517573</v>
       </c>
       <c r="E87">
-        <v>0.0881702261297157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04787904169230158</v>
+      </c>
+      <c r="F87">
+        <v>0.04298288444064757</v>
+      </c>
+      <c r="G87">
+        <v>0.07999222556465849</v>
+      </c>
+      <c r="H87">
+        <v>-0.0002452437982743127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04505493912376912</v>
+        <v>0.03341634932044112</v>
       </c>
       <c r="C88">
-        <v>0.04900282564339116</v>
+        <v>0.07077480076832167</v>
       </c>
       <c r="D88">
-        <v>0.001385562175827711</v>
+        <v>-0.01206780035985648</v>
       </c>
       <c r="E88">
-        <v>0.02326449044939293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03218629502529365</v>
+      </c>
+      <c r="F88">
+        <v>0.02143726880670969</v>
+      </c>
+      <c r="G88">
+        <v>-0.01197422735060088</v>
+      </c>
+      <c r="H88">
+        <v>-0.01771112491008222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3447003568319119</v>
+        <v>0.3967643031812961</v>
       </c>
       <c r="C89">
-        <v>-0.2965395731445678</v>
+        <v>-0.1631641944389438</v>
       </c>
       <c r="D89">
-        <v>0.03349507512614432</v>
+        <v>-0.05666321995381589</v>
       </c>
       <c r="E89">
-        <v>0.1101728997707628</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03340265616331839</v>
+      </c>
+      <c r="F89">
+        <v>0.06901269838211942</v>
+      </c>
+      <c r="G89">
+        <v>0.08626242064827534</v>
+      </c>
+      <c r="H89">
+        <v>0.08029876118174055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2747780377488202</v>
+        <v>0.322027625044607</v>
       </c>
       <c r="C90">
-        <v>-0.2189567258030279</v>
+        <v>-0.1072574367249069</v>
       </c>
       <c r="D90">
-        <v>0.05968747202574352</v>
+        <v>-0.03293706316655245</v>
       </c>
       <c r="E90">
-        <v>0.001558531485182701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0008297451000732061</v>
+      </c>
+      <c r="F90">
+        <v>-0.009164279021123389</v>
+      </c>
+      <c r="G90">
+        <v>0.06132695344069503</v>
+      </c>
+      <c r="H90">
+        <v>0.001817583020297015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.136035566238602</v>
+        <v>0.06716986464878701</v>
       </c>
       <c r="C91">
-        <v>0.1998071455112474</v>
+        <v>0.2022009857447784</v>
       </c>
       <c r="D91">
-        <v>-0.09381320303429776</v>
+        <v>0.1032157608506755</v>
       </c>
       <c r="E91">
-        <v>0.03652585928362827</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08198475049938778</v>
+      </c>
+      <c r="F91">
+        <v>0.05927590977909247</v>
+      </c>
+      <c r="G91">
+        <v>0.01192330921843248</v>
+      </c>
+      <c r="H91">
+        <v>0.0175884015228542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2574273509829356</v>
+        <v>0.335235088458614</v>
       </c>
       <c r="C92">
-        <v>-0.2456263179920717</v>
+        <v>-0.1502822140663695</v>
       </c>
       <c r="D92">
-        <v>-0.05140274661318182</v>
+        <v>-0.01835682127850772</v>
       </c>
       <c r="E92">
-        <v>0.01679216739876613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06824902816945073</v>
+      </c>
+      <c r="F92">
+        <v>0.03627574932975697</v>
+      </c>
+      <c r="G92">
+        <v>-0.009196605988357968</v>
+      </c>
+      <c r="H92">
+        <v>-0.1369190215422898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.293653135421174</v>
+        <v>0.3288501379462785</v>
       </c>
       <c r="C93">
-        <v>-0.2271307413524078</v>
+        <v>-0.1220110439572795</v>
       </c>
       <c r="D93">
-        <v>-0.02290100325466506</v>
+        <v>0.0250307171460332</v>
       </c>
       <c r="E93">
-        <v>-0.008093818760296264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0130427354194914</v>
+      </c>
+      <c r="F93">
+        <v>0.009243510972766092</v>
+      </c>
+      <c r="G93">
+        <v>-0.02682994851747122</v>
+      </c>
+      <c r="H93">
+        <v>-0.02716275542497557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.252511594490334</v>
+        <v>0.1212514486369323</v>
       </c>
       <c r="C94">
-        <v>0.2834423229108345</v>
+        <v>0.3215255798157058</v>
       </c>
       <c r="D94">
-        <v>-0.2169325471454353</v>
+        <v>0.351331840509252</v>
       </c>
       <c r="E94">
-        <v>-0.3050663595807488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1265463592076273</v>
+      </c>
+      <c r="F94">
+        <v>-0.1537508912412839</v>
+      </c>
+      <c r="G94">
+        <v>0.2861030298511077</v>
+      </c>
+      <c r="H94">
+        <v>-0.1021456321886887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01153336435950881</v>
+        <v>0.01832489948657853</v>
       </c>
       <c r="C95">
-        <v>0.04731692502218448</v>
+        <v>0.07484914421348753</v>
       </c>
       <c r="D95">
-        <v>0.1103248568803054</v>
+        <v>-0.1346428113374387</v>
       </c>
       <c r="E95">
-        <v>0.05421798704360416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09413103426484069</v>
+      </c>
+      <c r="F95">
+        <v>-0.03227562681837538</v>
+      </c>
+      <c r="G95">
+        <v>-0.06721358121167381</v>
+      </c>
+      <c r="H95">
+        <v>-0.04785352395599913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002628315980443481</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001007293002864524</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003744457310558083</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003845189697053862</v>
+      </c>
+      <c r="F97">
+        <v>0.001107516684556072</v>
+      </c>
+      <c r="G97">
+        <v>0.00140219098689275</v>
+      </c>
+      <c r="H97">
+        <v>-0.005854537321164512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1475079996689351</v>
+        <v>0.1355011331960406</v>
       </c>
       <c r="C98">
-        <v>0.09994662031260461</v>
+        <v>0.1621692273233638</v>
       </c>
       <c r="D98">
-        <v>0.1265407310141634</v>
+        <v>-0.0202643550433502</v>
       </c>
       <c r="E98">
-        <v>-0.115161929917768</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1841409512308327</v>
+      </c>
+      <c r="F98">
+        <v>-0.2418482090958644</v>
+      </c>
+      <c r="G98">
+        <v>-0.3007303916625202</v>
+      </c>
+      <c r="H98">
+        <v>0.1308009158302573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002302611051388505</v>
+        <v>0.00288798773258334</v>
       </c>
       <c r="C101">
-        <v>0.02034283589944115</v>
+        <v>0.04071743831399329</v>
       </c>
       <c r="D101">
-        <v>0.07488903019085935</v>
+        <v>-0.09526975475646315</v>
       </c>
       <c r="E101">
-        <v>0.04598428088326413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09717975159712088</v>
+      </c>
+      <c r="F101">
+        <v>0.03675500658805597</v>
+      </c>
+      <c r="G101">
+        <v>0.01642902481680513</v>
+      </c>
+      <c r="H101">
+        <v>0.03852119899184905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09043585561746814</v>
+        <v>0.02274091505670945</v>
       </c>
       <c r="C102">
-        <v>0.1661562924760826</v>
+        <v>0.1384069023912532</v>
       </c>
       <c r="D102">
-        <v>-0.01519021374800533</v>
+        <v>0.09459899737529731</v>
       </c>
       <c r="E102">
-        <v>-0.09949115387914495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05546727243839145</v>
+      </c>
+      <c r="F102">
+        <v>-0.08205938248403639</v>
+      </c>
+      <c r="G102">
+        <v>0.01460319977479079</v>
+      </c>
+      <c r="H102">
+        <v>0.02339253542081737</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
